--- a/individual_results/avey/398.xlsx
+++ b/individual_results/avey/398.xlsx
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E2" t="n">
         <v>0.4</v>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.2</v>
@@ -625,13 +625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>0.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.5</v>
@@ -698,11 +698,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="E4" t="n">
         <v>0.5714285714285715</v>
@@ -721,15 +721,11 @@
       <c r="K4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
         <v>0.2857142857142858</v>
       </c>
@@ -759,11 +755,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E5" t="n">
         <v>0.7692307692307692</v>
@@ -782,15 +778,11 @@
       <c r="K5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
-        <v>0.3125</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
         <v>0.3846153846153846</v>
       </c>
@@ -820,13 +812,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6278397607958708</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6590018048024133</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="E6" t="n">
         <v>0.9639404333166532</v>
@@ -850,7 +842,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1377057761880933</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -862,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.09810357436897517</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.2754115523761866</v>
